--- a/AAII_Financials/Yearly/JBSAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JBSAY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>75495100</v>
+        <v>75660000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>63516200</v>
+        <v>63655000</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11978900</v>
+        <v>12005100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>127600</v>
+        <v>127900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>268800</v>
+        <v>269400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -924,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70533400</v>
+        <v>70687500</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4961700</v>
+        <v>4972600</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>116400</v>
+        <v>116700</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7073100</v>
+        <v>7078200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1395800</v>
+        <v>1398800</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3682400</v>
+        <v>3690400</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1099,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>419400</v>
+        <v>420400</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3262900</v>
+        <v>3270100</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1180,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3113200</v>
+        <v>3120000</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-116400</v>
+        <v>-116700</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1342,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3113200</v>
+        <v>3120000</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1396,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3113200</v>
+        <v>3120000</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2729600</v>
+        <v>2735600</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5156300</v>
+        <v>5167600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7623600</v>
+        <v>7640200</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>479900</v>
+        <v>480900</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15989400</v>
+        <v>16024300</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2096900</v>
+        <v>2101400</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14735400</v>
+        <v>14767600</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8205200</v>
+        <v>8223100</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>886700</v>
+        <v>888600</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41913500</v>
+        <v>42005000</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4335500</v>
+        <v>4345000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2017400</v>
+        <v>2021800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4756300</v>
+        <v>4766700</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11109300</v>
+        <v>11133500</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18392100</v>
+        <v>18432300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2380600</v>
+        <v>2385800</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32579800</v>
+        <v>32650900</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3594000</v>
+        <v>3601900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9333700</v>
+        <v>9354100</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3113200</v>
+        <v>3120000</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>
@@ -2510,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1984600</v>
+        <v>1988900</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2672,7 +2672,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2685400</v>
+        <v>2691200</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2712,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2261000</v>
+        <v>-2266000</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2793,7 +2793,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2643300</v>
+        <v>-2649100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-893500</v>
+        <v>-895400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1764100</v>
+        <v>-1767900</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-303400</v>
+        <v>-304100</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -2995,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2025500</v>
+        <v>-2029900</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JBSAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JBSAY_YR_FIN.xlsx
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>75660000</v>
+        <v>77080700</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>63655000</v>
+        <v>64850300</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12005100</v>
+        <v>12230500</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>127900</v>
+        <v>130300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>269400</v>
+        <v>274500</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -924,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70687500</v>
+        <v>72014800</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4972600</v>
+        <v>5065900</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>116700</v>
+        <v>118900</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7078200</v>
+        <v>7211600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1398800</v>
+        <v>1425100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3690400</v>
+        <v>3759700</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1099,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>420400</v>
+        <v>428200</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3270100</v>
+        <v>3331500</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1180,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3120000</v>
+        <v>3178600</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-116700</v>
+        <v>-118900</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1342,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3120000</v>
+        <v>3178600</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1396,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3120000</v>
+        <v>3178600</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2735600</v>
+        <v>2787000</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5167600</v>
+        <v>5264600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7640200</v>
+        <v>7783700</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>480900</v>
+        <v>490000</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16024300</v>
+        <v>16325200</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2101400</v>
+        <v>2140900</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14767600</v>
+        <v>15044900</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8223100</v>
+        <v>8377500</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>888600</v>
+        <v>905300</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42005000</v>
+        <v>42793800</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4345000</v>
+        <v>4426600</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2021800</v>
+        <v>2059800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4766700</v>
+        <v>4856200</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11133500</v>
+        <v>11342600</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18432300</v>
+        <v>18778400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2385800</v>
+        <v>2430600</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32650900</v>
+        <v>33264000</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3601900</v>
+        <v>3669500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9354100</v>
+        <v>9529800</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3120000</v>
+        <v>3178600</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>
@@ -2510,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1988900</v>
+        <v>2026200</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2672,7 +2672,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2691200</v>
+        <v>2741800</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2712,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2266000</v>
+        <v>-2308500</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2793,7 +2793,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2649100</v>
+        <v>-2698900</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-895400</v>
+        <v>-912200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1767900</v>
+        <v>-1801100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-304100</v>
+        <v>-309800</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -2995,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2029900</v>
+        <v>-2068000</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
